--- a/Pressure.xlsx
+++ b/Pressure.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E73713F-09CC-469C-9865-06D15739EC21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2A296D-3FE2-4106-BF0A-617B928AE55D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="284">
   <si>
     <t>12.11.2019</t>
   </si>
@@ -752,9 +752,6 @@
   </si>
   <si>
     <t>26.10.2020</t>
-  </si>
-  <si>
-    <t>01.11.2019</t>
   </si>
   <si>
     <t>01.11.2020</t>
@@ -1200,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1214,22 +1211,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" t="s">
         <v>279</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>280</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>281</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>282</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>283</v>
-      </c>
-      <c r="F1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2242,7 +2239,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -17662,7 +17659,7 @@
     </row>
     <row r="1072" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1072" s="1">
         <v>0.60555555555555551</v>
@@ -17679,7 +17676,7 @@
     </row>
     <row r="1073" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1073">
         <v>116</v>
@@ -17693,7 +17690,7 @@
     </row>
     <row r="1074" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B1074" s="1">
         <v>0.62152777777777779</v>
@@ -17710,7 +17707,7 @@
     </row>
     <row r="1075" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1075">
         <v>107</v>
@@ -17724,7 +17721,7 @@
     </row>
     <row r="1076" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1076" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1076">
         <v>145</v>
@@ -17738,7 +17735,7 @@
     </row>
     <row r="1077" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1077">
         <v>129</v>
@@ -17752,7 +17749,7 @@
     </row>
     <row r="1078" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1078" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1078" s="1">
         <v>0.31388888888888888</v>
@@ -17769,7 +17766,7 @@
     </row>
     <row r="1079" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1079" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C1079">
         <v>120</v>
@@ -17783,7 +17780,7 @@
     </row>
     <row r="1080" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1080" s="1">
         <v>0.96527777777777779</v>
@@ -17800,7 +17797,7 @@
     </row>
     <row r="1081" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1081">
         <v>128</v>
@@ -17814,7 +17811,7 @@
     </row>
     <row r="1082" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1082" s="1">
         <v>0.71527777777777779</v>
@@ -17831,7 +17828,7 @@
     </row>
     <row r="1083" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1083" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1083">
         <v>115</v>
@@ -17845,7 +17842,7 @@
     </row>
     <row r="1084" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1084" s="1">
         <v>0.91666666666666663</v>
@@ -17862,7 +17859,7 @@
     </row>
     <row r="1085" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1085" s="1">
         <v>0.79861111111111116</v>
@@ -17879,7 +17876,7 @@
     </row>
     <row r="1086" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1086" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1086">
         <v>102</v>
@@ -17893,7 +17890,7 @@
     </row>
     <row r="1087" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1087" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C1087">
         <v>107</v>
@@ -17907,7 +17904,7 @@
     </row>
     <row r="1088" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1088" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1088" s="1">
         <v>0.30555555555555552</v>
@@ -17924,7 +17921,7 @@
     </row>
     <row r="1089" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1089" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1089">
         <v>128</v>
@@ -17938,7 +17935,7 @@
     </row>
     <row r="1090" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1090" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1090" s="1">
         <v>0.73055555555555562</v>
@@ -17955,7 +17952,7 @@
     </row>
     <row r="1091" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1091" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1091">
         <v>136</v>
@@ -17969,7 +17966,7 @@
     </row>
     <row r="1092" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1092" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1092">
         <v>125</v>
@@ -17983,7 +17980,7 @@
     </row>
     <row r="1093" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1093" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1093" s="1">
         <v>0.84027777777777779</v>
@@ -18000,7 +17997,7 @@
     </row>
     <row r="1094" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1094" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1094">
         <v>170</v>
@@ -18014,7 +18011,7 @@
     </row>
     <row r="1095" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1095" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1095">
         <v>157</v>
@@ -18028,7 +18025,7 @@
     </row>
     <row r="1096" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1096" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C1096">
         <v>149</v>
@@ -18042,7 +18039,7 @@
     </row>
     <row r="1097" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1097" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1097" s="1">
         <v>0.92361111111111116</v>
@@ -18059,7 +18056,7 @@
     </row>
     <row r="1098" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1098" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1098" s="1">
         <v>0.33333333333333331</v>
@@ -18076,7 +18073,7 @@
     </row>
     <row r="1099" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1099" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1099" s="1">
         <v>0.3215277777777778</v>
@@ -18093,7 +18090,7 @@
     </row>
     <row r="1100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1100" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1100" s="1">
         <v>0.72569444444444453</v>
@@ -18110,7 +18107,7 @@
     </row>
     <row r="1101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1101" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1101">
         <v>126</v>
@@ -18124,7 +18121,7 @@
     </row>
     <row r="1102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1102" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1102" s="1">
         <v>0.81944444444444453</v>
@@ -18141,7 +18138,7 @@
     </row>
     <row r="1103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1103" s="1">
         <v>0.79166666666666663</v>
@@ -18158,7 +18155,7 @@
     </row>
     <row r="1104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C1104">
         <v>111</v>
@@ -18172,7 +18169,7 @@
     </row>
     <row r="1105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C1105">
         <v>112</v>
@@ -18186,7 +18183,7 @@
     </row>
     <row r="1106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1106" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B1106" s="1">
         <v>0.31597222222222221</v>
@@ -18203,7 +18200,7 @@
     </row>
     <row r="1107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1107" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1107">
         <v>115</v>
@@ -18217,7 +18214,7 @@
     </row>
     <row r="1108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1108" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1108">
         <v>121</v>
@@ -18231,7 +18228,7 @@
     </row>
     <row r="1109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1109" s="1">
         <v>0.2638888888888889</v>
@@ -18248,7 +18245,7 @@
     </row>
     <row r="1110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1110">
         <v>119</v>
@@ -18262,7 +18259,7 @@
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1111" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1111">
         <v>117</v>
@@ -18276,7 +18273,7 @@
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1112" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1112" s="1">
         <v>0.56597222222222221</v>
@@ -18293,7 +18290,7 @@
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1113" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1113">
         <v>88</v>
@@ -18307,7 +18304,7 @@
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1114" s="1">
         <v>0.95833333333333337</v>
@@ -18324,7 +18321,7 @@
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1115" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1115">
         <v>130</v>
@@ -18338,7 +18335,7 @@
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B1116" s="1">
         <v>0.3520833333333333</v>
@@ -18355,7 +18352,7 @@
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1117" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1117">
         <v>135</v>
@@ -18369,7 +18366,7 @@
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1118" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1118" s="1">
         <v>0.35694444444444445</v>
@@ -18386,7 +18383,7 @@
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1119" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1119">
         <v>114</v>
@@ -18400,7 +18397,7 @@
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1120" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1120" s="1">
         <v>0.3125</v>
@@ -18417,7 +18414,7 @@
     </row>
     <row r="1121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1121" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C1121">
         <v>132</v>
@@ -18431,7 +18428,7 @@
     </row>
     <row r="1122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1122" s="1">
         <v>0.78819444444444453</v>
@@ -18448,7 +18445,7 @@
     </row>
     <row r="1123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1123" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1123" s="1">
         <v>0.28819444444444448</v>
@@ -18465,7 +18462,7 @@
     </row>
     <row r="1124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1124">
         <v>121</v>
@@ -18479,7 +18476,7 @@
     </row>
     <row r="1125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1125" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1125" s="1">
         <v>0.34375</v>
@@ -18496,7 +18493,7 @@
     </row>
     <row r="1126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1126">
         <v>116</v>
@@ -18510,7 +18507,7 @@
     </row>
     <row r="1127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1127" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1127" s="1">
         <v>0.81597222222222221</v>
@@ -18527,7 +18524,7 @@
     </row>
     <row r="1128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1128" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1128">
         <v>113</v>
@@ -18541,7 +18538,7 @@
     </row>
     <row r="1129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1129" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1129">
         <v>131</v>
@@ -18555,7 +18552,7 @@
     </row>
     <row r="1130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1130" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1130">
         <v>131</v>
@@ -18569,7 +18566,7 @@
     </row>
     <row r="1131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1131" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1131">
         <v>126</v>
@@ -18583,7 +18580,7 @@
     </row>
     <row r="1132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1132" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1132">
         <v>137</v>
@@ -18597,7 +18594,7 @@
     </row>
     <row r="1133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C1133">
         <v>117</v>
@@ -18611,7 +18608,7 @@
     </row>
     <row r="1134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1134" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1134" s="1">
         <v>0.93402777777777779</v>
@@ -18628,7 +18625,7 @@
     </row>
     <row r="1135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1135" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1135" s="1">
         <v>0.41666666666666669</v>
@@ -18645,7 +18642,7 @@
     </row>
     <row r="1136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1136" s="1">
         <v>0.78125</v>
@@ -18662,7 +18659,7 @@
     </row>
     <row r="1137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1137">
         <v>122</v>
@@ -18676,7 +18673,7 @@
     </row>
     <row r="1138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1138">
         <v>133</v>
@@ -18690,7 +18687,7 @@
     </row>
     <row r="1139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1139" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1139">
         <v>121</v>
@@ -18704,7 +18701,7 @@
     </row>
     <row r="1140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1140">
         <v>139</v>
@@ -18718,7 +18715,7 @@
     </row>
     <row r="1141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1141">
         <v>114</v>
@@ -18732,7 +18729,7 @@
     </row>
     <row r="1142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1142" s="1">
         <v>0.35416666666666669</v>
@@ -18749,7 +18746,7 @@
     </row>
     <row r="1143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1143" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1143">
         <v>98</v>
@@ -18763,7 +18760,7 @@
     </row>
     <row r="1144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1144" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1144">
         <v>122</v>
@@ -18777,7 +18774,7 @@
     </row>
     <row r="1145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1145" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1145">
         <v>131</v>
@@ -18791,7 +18788,7 @@
     </row>
     <row r="1146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1146" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1146">
         <v>136</v>
@@ -18805,7 +18802,7 @@
     </row>
     <row r="1147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1147" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1147">
         <v>131</v>
@@ -18819,7 +18816,7 @@
     </row>
     <row r="1148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1148" s="1">
         <v>0.99305555555555547</v>
@@ -18836,7 +18833,7 @@
     </row>
     <row r="1149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1149" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1149">
         <v>95</v>
@@ -18850,7 +18847,7 @@
     </row>
     <row r="1150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1150" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1150">
         <v>128</v>
@@ -18864,7 +18861,7 @@
     </row>
     <row r="1151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1151" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1151">
         <v>91</v>
@@ -18878,7 +18875,7 @@
     </row>
     <row r="1152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1152" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B1152" s="1">
         <v>3.472222222222222E-3</v>
@@ -18895,7 +18892,7 @@
     </row>
     <row r="1153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1153" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B1153" s="1">
         <v>0.69930555555555562</v>
@@ -18912,7 +18909,7 @@
     </row>
     <row r="1154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1154" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1154">
         <v>117</v>
@@ -18926,7 +18923,7 @@
     </row>
     <row r="1155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1155" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C1155">
         <v>113</v>
@@ -18940,7 +18937,7 @@
     </row>
     <row r="1156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1156" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1156">
         <v>140</v>
@@ -18954,7 +18951,7 @@
     </row>
     <row r="1157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1157" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1157">
         <v>138</v>
@@ -18968,7 +18965,7 @@
     </row>
     <row r="1158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1158" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1158">
         <v>134</v>
@@ -18982,7 +18979,7 @@
     </row>
     <row r="1159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1159" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1159" s="1">
         <v>0.92708333333333337</v>
@@ -18999,7 +18996,7 @@
     </row>
     <row r="1160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1160" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1160">
         <v>134</v>
@@ -19013,7 +19010,7 @@
     </row>
     <row r="1161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1161" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1161">
         <v>128</v>
@@ -19027,7 +19024,7 @@
     </row>
     <row r="1162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1162" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C1162">
         <v>128</v>
@@ -19041,7 +19038,7 @@
     </row>
     <row r="1163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1163" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C1163">
         <v>113</v>
@@ -19055,7 +19052,7 @@
     </row>
     <row r="1164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1164" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1164" s="1">
         <v>0.2986111111111111</v>
@@ -19072,7 +19069,7 @@
     </row>
     <row r="1165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1165" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B1165" s="1">
         <v>0.79166666666666663</v>
@@ -19089,7 +19086,7 @@
     </row>
     <row r="1166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1166" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C1166">
         <v>125</v>
@@ -19103,7 +19100,7 @@
     </row>
     <row r="1167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1167" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1167" s="1">
         <v>0.2638888888888889</v>
@@ -19120,7 +19117,7 @@
     </row>
     <row r="1168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1168" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1168">
         <v>144</v>
@@ -19134,7 +19131,7 @@
     </row>
     <row r="1169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1169" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1169">
         <v>135</v>
@@ -19148,7 +19145,7 @@
     </row>
     <row r="1170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1170" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1170" s="1">
         <v>0.84027777777777779</v>
@@ -19165,7 +19162,7 @@
     </row>
     <row r="1171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1171" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1171">
         <v>141</v>
@@ -19179,7 +19176,7 @@
     </row>
     <row r="1172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1172" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1172">
         <v>130</v>
@@ -19193,7 +19190,7 @@
     </row>
     <row r="1173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1173" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1173" s="1">
         <v>0.94791666666666663</v>
@@ -19210,7 +19207,7 @@
     </row>
     <row r="1174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1174" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1174">
         <v>135</v>
@@ -19224,7 +19221,7 @@
     </row>
     <row r="1175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1175" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1175">
         <v>142</v>
@@ -19238,7 +19235,7 @@
     </row>
     <row r="1176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1176" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1176">
         <v>150</v>
@@ -19252,7 +19249,7 @@
     </row>
     <row r="1177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1177" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C1177">
         <v>133</v>
@@ -19266,7 +19263,7 @@
     </row>
     <row r="1178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1178" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C1178">
         <v>122</v>
@@ -19280,7 +19277,7 @@
     </row>
     <row r="1179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1179" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1179" s="1">
         <v>0.61111111111111105</v>
@@ -19297,7 +19294,7 @@
     </row>
     <row r="1180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1180" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1180" s="1">
         <v>0.98958333333333337</v>
@@ -19314,7 +19311,7 @@
     </row>
     <row r="1181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1181" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C1181">
         <v>137</v>
@@ -19328,7 +19325,7 @@
     </row>
     <row r="1182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1182" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C1182">
         <v>132</v>
@@ -19342,7 +19339,7 @@
     </row>
     <row r="1183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1183" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1183" s="1">
         <v>0.49652777777777773</v>
@@ -19359,7 +19356,7 @@
     </row>
     <row r="1184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1184" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1184">
         <v>137</v>
@@ -19373,7 +19370,7 @@
     </row>
     <row r="1185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1185" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C1185">
         <v>135</v>
@@ -19387,7 +19384,7 @@
     </row>
     <row r="1186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1186" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B1186" s="1">
         <v>0.76944444444444438</v>
@@ -19404,7 +19401,7 @@
     </row>
     <row r="1187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1187" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C1187">
         <v>120</v>
@@ -19418,7 +19415,7 @@
     </row>
     <row r="1188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1188" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C1188">
         <v>163</v>
@@ -19432,7 +19429,7 @@
     </row>
     <row r="1189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1189" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C1189">
         <v>146</v>
@@ -19446,7 +19443,7 @@
     </row>
     <row r="1190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1190" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C1190">
         <v>143</v>
@@ -19460,7 +19457,7 @@
     </row>
     <row r="1191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1191" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1191" s="1">
         <v>0.7402777777777777</v>
@@ -19477,7 +19474,7 @@
     </row>
     <row r="1192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1192" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C1192">
         <v>145</v>
@@ -19491,7 +19488,7 @@
     </row>
     <row r="1193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1193" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C1193">
         <v>128</v>
@@ -19505,7 +19502,7 @@
     </row>
     <row r="1194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1194" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C1194">
         <v>134</v>
@@ -19519,7 +19516,7 @@
     </row>
     <row r="1195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1195" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B1195" s="1">
         <v>0.6020833333333333</v>
@@ -19536,7 +19533,7 @@
     </row>
     <row r="1196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1196" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C1196">
         <v>135</v>
@@ -19550,7 +19547,7 @@
     </row>
     <row r="1197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1197" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B1197" s="1">
         <v>0.3611111111111111</v>
@@ -19567,7 +19564,7 @@
     </row>
     <row r="1198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1198" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C1198">
         <v>126</v>
